--- a/IA/001 - Support Files/templateReport.xlsx
+++ b/IA/001 - Support Files/templateReport.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vx221vs\DesafioTraineeGrupo03\001 - Support Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vx221vs\DesafioTraineeGrupo03\IA\001 - Support Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC6343-57B8-48E7-880E-88F3DEA40104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F4C48-DED2-4E77-B09D-F0E1E7C75A40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="heroesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
